--- a/outputs/PATTAYA1.xlsx
+++ b/outputs/PATTAYA1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements and would be motivated to know where other attendees are staying to make informed decisions about her accommodation (Motivations). Additionally, gathering comprehensive information such as where people are staying aligns with Abi's comprehensive information processing style, as it helps her form a complete understanding of the logistics involved (Information Processing Style).</t>
+Facets: Motivations, Information Processing Style
+Why: Abi is making travel arrangements and knowing where people are staying is a logical step in this process. This aligns with her motivation to accomplish her tasks effectively. Additionally, gathering information about accommodation options is part of her comprehensive information processing style, as it helps her form a complete understanding of her travel plans.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly visible on the page, and it is logically associated with information relevant to attendees such as accommodations. Abi, being motivated to make travel arrangements, would likely recognize this as a relevant section to explore. Additionally, since Abi prefers to gather comprehensive information, she would find it reasonable to click on a link that promises relevant details about attending the conference.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that clicking on it will provide information relevant to attendees, such as accommodation options. This aligns with her comprehensive information processing style, as she would likely explore this section to gather necessary details. Additionally, the clear labeling supports her process-oriented learning style, making it straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with several options. While these options include "Accommodation," which might eventually lead her to the information she needs, Abi's low computer self-efficacy means she might feel unsure or overwhelmed by the number of choices and the lack of immediate feedback indicating progress. Additionally, Abi's preference for process-oriented learning means she would benefit from more explicit guidance or a step-by-step process, which this dropdown menu does not provide. This could hinder her confidence that she did the right thing and is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Learning Style
+Why: After clicking on "Attending," Abi is presented with a dropdown menu that includes "Accommodation," which is directly relevant to her goal of finding out where people are staying. This clear and organized presentation of options aligns with her comprehensive information processing style and process-oriented learning style. She will know she is making progress toward her goal because the relevant option is explicitly listed, making it easy for her to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly labeled in the dropdown menu under "Attending," making it easy for Abi to identify. Given her motivation to make travel arrangements and her comprehensive information processing style, Abi would recognize this option as directly relevant to her goal of finding out where people are staying. This clarity and relevance would make her confident in taking this action.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending." This makes it straightforward for Abi to know what to do next. The clear labeling and organization of the menu align with her comprehensive information processing style and process-oriented learning style, making it easy for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on "Accommodation," Abi is taken to a page that provides detailed information about the conference hotel, including its amenities, location, and registration details. This aligns with Abi's comprehensive information processing style, as it provides a complete picture of where people might be staying. The detailed information about the hotel and the advantages of staying there would help Abi feel confident that she is making progress towards her goal of understanding where attendees are likely to stay. Additionally, her motivation to make informed travel arrangements is supported by the clear and relevant information on this page.</t>
+Facets: Information Processing Style, Learning Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details in one place. The clear and organized presentation of information also supports her process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides a clear and comprehensive overview of the accommodation options and relevant details about the conference hotel. Abi, with her comprehensive information processing style, would naturally scroll down to ensure she has captured all the relevant information. The layout and content on the page are straightforward and informative, making it easy for her to know that scrolling down is the next logical step to gather more details.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page is well-organized and provides a clear overview of the accommodation details. Abi can see that there is more information available below the fold, which aligns with her comprehensive information processing style. Scrolling down to gather more details is a natural action for her to take, and the page layout supports this by indicating that additional relevant information is available. This also fits her process-oriented learning style, as she can systematically review all the information presented.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling, Abi will see detailed information about the accommodation options, including the conference hotel, its amenities, and the benefits of staying there. This comprehensive information aligns with her information processing style, ensuring she has all the necessary details to make an informed decision. Additionally, the structured and clear presentation of the information will help Abi feel confident that she is making progress toward her goal of understanding where attendees are likely to stay. The page provides all relevant details without overwhelming her, supporting her motivation to make travel arrangements effectively.</t>
+Facets: Information Processing Style, Learning Style
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its amenities, location, and reasons to stay there. This comprehensive information aligns with her information processing style, as it allows her to gather all the necessary details in one place. The clear and organized presentation of information also supports her process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements, which aligns with Abi's overall goal of attending ICSE 2019. Understanding the duration of the stay involves gathering information about the conference schedule, sessions, and events, which is consistent with her comprehensive information processing style. Abi would consider this an essential step in planning her trip effectively.</t>
+Facets: Motivations, Information Processing Style
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi would need to know the duration of her stay to book accommodation and plan her travel effectively. This aligns with her motivation to accomplish her tasks efficiently and her comprehensive information processing style, as she would consider all necessary details to form a complete understanding of her travel plans.</t>
         </is>
       </c>
     </row>
@@ -497,17 +497,17 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" option is visible in the navigation menu at the top of the page. Given Abi's motivation to make comprehensive travel arrangements, including deciding how many days to stay, it is logical that she would look for the conference schedule. The "Program" link is intuitively associated with finding detailed information about the conference schedule and events, which aligns with her comprehensive information processing style. Therefore, Abi will likely recognize that clicking on "Program" will help her gather the necessary information to determine the duration of her stay.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi can reasonably infer that clicking on "Program" will provide her with the conference schedule, which is essential for determining how many days to stay. This aligns with her comprehensive information processing style, as she would seek out detailed information to make an informed decision. The clear labeling and organization of the menu also support her process-oriented learning style, making it straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu with several options related to different aspects of the conference program. While these options are comprehensive, the sheer number of choices might overwhelm Abi, given her low computer self-efficacy. The dropdown menu does not provide immediate feedback or a clear indication of which specific option to choose to find the overall schedule. Abi's preference for process-oriented learning means she would benefit from more explicit guidance or a step-by-step process, which this dropdown menu does not provide. This lack of clear direction might make her uncertain whether she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Learning Style
+Why: After clicking on "Program," Abi is presented with a dropdown menu that includes various options such as "Complete Program," "Week Overview," and "Filter by Day." These options provide a clear path for her to find the detailed schedule of the conference, which is essential for determining how many days to stay. The organized presentation of options aligns with her comprehensive information processing style and process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has access to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option in the dropdown menu is clearly labeled and intuitively associated with providing a summary of the conference schedule for the entire week. Given Abi's motivation to determine how many days to stay at the conference, she would recognize that clicking on "Week Overview" is a logical step to gather the necessary information. Additionally, this aligns with her comprehensive information processing style, as it suggests a more detailed and complete view of the event schedule, helping her make an informed decision.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program." Abi can reasonably infer that clicking on "Week Overview" will provide her with a summary of the conference schedule for the entire week, which is essential for determining how many days to stay. This aligns with her comprehensive information processing style, as she would seek out detailed information to make an informed decision. The clear labeling and organization of the menu also support her process-oriented learning style, making it straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking "Week Overview," Abi is presented with a detailed schedule of the entire week, clearly showing the co-located events, workshops, and main conference sessions. This comprehensive layout aligns with Abi's information processing style, providing all the necessary details to determine how many days she should stay at the conference. The clear categorization and color-coding of events make it easy to understand the schedule at a glance, helping Abi feel confident that she has made progress toward her goal of planning her stay. This detailed information supports her motivation to make well-informed travel arrangements.</t>
+Facets: Information Processing Style, Learning Style
+Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference week, including co-located events, workshops, and main conference sessions. This comprehensive overview allows her to see the entire week's activities at a glance, helping her determine how many days to stay. The clear and organized presentation of the schedule aligns with her comprehensive information processing style and process-oriented learning style, making it easy for her to understand that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Although the "Tracks" section is visible on the page, Abi's low computer self-efficacy means she might feel uncertain about whether clicking on "Tracks" will provide the information she needs about the conference duration. Additionally, given her preference for process-oriented learning, Abi would benefit from clearer guidance indicating that "Tracks" contains relevant information about the schedule. Without explicit indicators or instructions, Abi might not confidently take this action, potentially hindering her progress.</t>
+Facets: Computer Self-Efficacy, Attitude Toward Risk
+Why: While the "Tracks" option is visible in the navigation menu, Abi may not be confident that clicking on it will provide additional information relevant to determining how many days to stay at the conference. The current page already provides a comprehensive week overview, and without clear indication that "Tracks" will offer more specific details, Abi might be hesitant to navigate away from the current page. Her low computer self-efficacy and risk-averse attitude toward using unfamiliar features may deter her from taking this action without more explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu that lists various tracks and co-hosted conferences. However, this menu does not provide immediate feedback or a clear indication that she is making progress toward her goal of understanding how many days to stay at the conference. Given Abi's low computer self-efficacy, she might feel uncertain about which specific track or option to choose next. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance or a step-by-step process, which this dropdown menu does not provide. Therefore, Abi may not feel confident that she did the right thing or is making progress towards her goal.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this provides additional information, it may not directly help her determine how many days to stay at the conference. The dropdown menu does not provide a clear indication that it will offer more specific details about the schedule or duration of each track. Given Abi's comprehensive information processing style, she may feel uncertain about whether this action is helping her make progress toward her goal. Additionally, her low computer self-efficacy may make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA1.xlsx
+++ b/outputs/PATTAYA1.xlsx
@@ -424,309 +424,265 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, finding accommodation information would be a natural step for someone planning to attend the conference, and this page provides that information. Looking at the interface, under the "Attending" section on the right side of the page, there is a clear link for "Accommodation" as well as information about the conference venue (Fairmont The Queen Elizabeth Hotel).
-For someone like Abi who is:
-- Comprehensive in her information gathering
-- Likes to understand the full context before making decisions
-- Prefers to gather all relevant information before proceeding
-This would definitely be a step she would think to take because:
-1. Accommodation is a fundamental need for conference attendance
-2. The information is directly available on the main navigation
-3. She would want to know the official conference hotel and options before making travel arrangements
-4. As a comprehensive information processor, she would want to understand the accommodation options in relation to the conference venue
-So yes, Abi would very likely identify finding accommodation information as a necessary step in her conference planning process.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Attitude Towards Risk
+Why: This subgoal aligns with ABI's characteristics because:
+- As a risk-averse person who prefers comprehensive information gathering, knowing where to stay would be an important step in her travel planning process (Information Processing Style &amp; Attitude Towards Risk)
+- Since she's attending a conference in a different city, finding accommodation information is a necessary and practical task that directly contributes to her goal of attending the conference (Motivations)
+- This is a logical step in the comprehensive planning process that ABI would want to complete before making any commitments, as she prefers to gather all necessary information before acting (Information Processing Style)
+- As someone who prefers predictability and minimizing risks, knowing the conference venue and where other attendees are staying would help her make a safe and practical choice (Attitude Towards Risk)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Let me analyze whether the interface supports Abi's goal of finding accommodation information:
-1. Visibility and Findability:
-- The "Attending" link is visible in the top navigation menu
-- However, it's not immediately obvious that accommodation information would be under "Attending"
-- Abi might hesitate because she needs to make an assumption that hotel/lodging information would be categorized under "Attending"
-2. Interface Elements:
-- The navigation menu is clean and standard
-- "Attending" could be interpreted as registration information rather than accommodation details
-- A more specific label like "Travel &amp; Accommodation" might be clearer for Abi's needs
-3. Abi's Characteristics:
-- As someone who tends to be risk-averse and prefers comprehensive information
-- She might:
-  * Question if "Attending" is the right place to look
-  * Want to explore other menu options to ensure she's not missing anything
-  * Feel uncertain about whether this will lead to the accommodation information she needs
-4. Page Assessment:
-- While the action is technically possible, the labeling could be clearer
-- The information architecture requires some assumption-making
-- Abi might spend extra time verifying this is the correct path
-Verdict:
-While Abi can eventually find the information, the interface could better support her needs. She may hesitate and feel uncertain about whether "Attending" is the right choice. The page could be improved by:
-- Using more specific labels
-- Providing hover tooltips showing subcategories
-- Having a more obvious path to accommodation information
-So while the action is possible, it may not fully support Abi's comprehensive and methodical approach to finding information.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: This action aligns with ABI's characteristics because:
+- The "Attending" link is clearly visible in the navigation menu and appears to be a logical place to find accommodation information (Information Processing Style)
+- The link text "Attending" is straightforward and self-explanatory, not using any technical jargon that might confuse ABI (Computer Self-Efficacy)
+- The menu structure is simple and follows a standard website layout pattern that ABI would be familiar with (Learning Style)
+- Looking at the page layout, "Attending" section appears to contain practical information for conference attendees, which matches ABI's goal of finding accommodation details (Information Processing Style)
+- The link is part of the main navigation, making it a safe, process-oriented choice rather than requiring any risky exploration or tinkering (Learning Style)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, clicking on "Attending" is the right action and Abi will know she's making progress because:
-1. After clicking "Attending", she can see a dropdown menu that includes "Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation" options, which directly addresses her goal of finding out where people are staying.
-2. The interface provides clear feedback by showing this relevant accommodation information in an organized dropdown menu.
-3. This is a logical path since "Attending" would naturally contain information about where conference attendees should stay.
-The navigation structure is straightforward and the information about the conference venue and accommodation options is immediately visible after clicking, confirming to Abi that she's on the right track to finding the accommodation information she needs.
-However, given Abi's characteristics from the GenderMag method:
-- She likes to gather information comprehensively before proceeding
-- She prefers step-by-step confirmations
-- She's not very confident about her computer skills
-She might appreciate having more explicit confirmation that this is the complete accommodation information available, and might want to check other menu items just to be thorough. The interface could potentially be more reassuring by having a more detailed label like "Attending &amp; Accommodation Information" to make it even clearer that this is where to find lodging details.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: After clicking "Attending", ABI will know she's on the right track because:
+- The dropdown menu clearly shows relevant options including "Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation" at the top of the list, which directly relates to her goal of finding where people are staying (Information Processing Style)
+- The menu items are organized in a logical way with accommodation-related information prominently displayed, making it easy for ABI to confirm she's made the right choice (Computer Self-Efficacy)
+- The options presented are practical and directly related to her task of making travel arrangements, showing clear progress toward her goal (Motivations)
+- The information is presented in a straightforward manner without technical jargon, making ABI feel confident she's in the right place (Computer Self-Efficacy)
+- The menu provides comprehensive information about venue and accommodation options, which aligns with her need to gather complete information before making decisions (Information Processing Style)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Let's analyze if this action step is clear enough:
-For this scenario, yes, the interface provides enough clarity for the user to find accommodation information:
-Positive Aspects:
-1. The "Attending" dropdown menu clearly contains an "Accommodation" link
-2. This is a logical place to look for lodging information
-3. The link is visible and accessible in the main navigation
-4. The text "Accommodation" is clear and unambiguous in its meaning
-However, there are some potential cognitive considerations:
-1. Information Processing Style:
-- The user needs to first recognize that accommodation info would be under "Attending"
-- Some users might look for it under different sections initially
-2. Risk Tolerance:
-- The user might want to verify if this is official conference accommodation
-- They might wonder if there are multiple accommodation options
-- They might want to know if there are conference rates
-3. Motivation:
-- As a second author who's chosen to attend, they'll want to ensure they're making cost-effective choices
-- They might want to stay where other conference attendees are staying
-The interface could be improved by:
-1. Perhaps adding a small hotel icon next to "Accommodation"
-2. Making it visible whether there are special conference rates
-3. Indicating if this is the official conference hotel
-Overall though, yes, the page is good enough for the user to take this action as the "Accommodation" link is clearly visible under a logical section ("Attending") and uses standard, clear terminology.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: This action aligns with ABI's characteristics because:
+- The "Accommodation" link is clearly visible in the dropdown menu right after the venue information, making it a logical next step (Information Processing Style)
+- The term "Accommodation" is straightforward and familiar, not using any technical jargon that might confuse ABI (Computer Self-Efficacy)
+- The menu structure presents options in a clear, hierarchical manner - first showing the venue, then accommodation - which follows a logical process that ABI would appreciate (Learning Style)
+- The link appears in a predictable location within the dropdown menu, making it feel safe and reliable to click (Computer Self-Efficacy)
+- The positioning of the link right after the venue information suggests it contains relevant information about where to stay, which directly relates to her goal (Information Processing Style)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes, Abi will know she did the right thing and is making progress toward her goal for several reasons:
-1. The page clearly shows accommodation information for the conference hotel (Fairmont The Queen Elizabeth Hotel), which directly addresses her goal of knowing where people are staying.
-2. The page provides comprehensive information that would be valuable for Abi's decision-making:
-- Location details (address and proximity to transit)
-- Why to stay at the conference hotel section
-- Benefits like being at the "centre of conference activity"
-- Details about amenities and WiFi
-- Clear pricing information and booking instructions
-3. The page also provides helpful context about why staying at the conference hotel is beneficial:
-- Networking opportunities with other attendees
-- Access to all conference activities
-- Complimentary amenities
-- Meeting contractual obligations that benefit all attendees
-4. There are clear next steps provided if she wants to book:
-- Contact information for reservations
-- ConferenceShare option for finding roommates
-- Specific booking instructions and phone numbers
-Given Abi's goal of finding out where people are staying, this page provides clear confirmation that the conference hotel is where most attendees will likely stay, along with all the practical information she would need to make an informed decision about her own accommodation.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: The page provides comprehensive information that aligns with ABI's needs because:
+- The page clearly shows and confirms this is the conference hotel (Fairmont The Queen Elizabeth Hotel) with detailed information about its location and amenities (Information Processing Style)
+- The information is presented in a structured way with clear sections like "Hotel Registration", "Why Stay at the Conference Hotel?" and "Address" which helps ABI process the information systematically (Information Processing Style)
+- The page provides practical details that ABI needs to make a decision, including:
+  * Location details and accessibility information
+  * Benefits of staying at the conference hotel (like Wi-Fi, health club access)
+  * Clear instructions about how to make reservations
+  * Contact information for booking (Computer Self-Efficacy)
+- The content directly addresses her goal of finding accommodation and provides complete information needed to make a decision (Motivations)
+- The information is presented in plain language without technical jargon, making ABI feel confident about understanding the content (Computer Self-Efficacy)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, Abi will know what to do at this step and the page is good enough for this action. Here's why:
-1. Risk Aversion &amp; Information Processing Style:
-- The page clearly shows accommodation information for the conference hotel (Fairmont The Queen Elizabeth Hotel)
-- The page provides comprehensive details about the hotel, including its location, benefits, and reasons to stay there
-- For someone like Abi who likes to gather information before making decisions, the page offers detailed explanations under "Why Stay at the Conference Hotel?"
-2. Learning Style &amp; Self-Perception:
-- The page presents information in a straightforward manner with clear headings
-- Information is broken down into digestible sections (Accommodation, Hotel Registration, Why Stay, Address)
-- For Abi, who prefers comprehensive information and learning step-by-step, scrolling through this page will help her understand all aspects of the accommodation
-3. Motivation:
-- As a second author who's chosen to attend, Abi would want to ensure she makes the right accommodation choice
-- The page explains practical benefits like being at the "centre of conference activity" and networking opportunities
-- The page also provides clear contact information for reservations if she needs it
-4. Visual Cues:
-- The hotel image and clear section headings make it easy to identify relevant information while scrolling
-- The layout is clean and organized, making it easy to scan and find specific details
-Given these factors and Abi's characteristics, scrolling through this well-structured page would be a natural and comfortable action for her to take while gathering information about conference accommodation options.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: The page layout encourages scrolling and aligns with ABI's characteristics because:
+- The page clearly shows there is more content below the initial view (visible content gets cut off), indicating a need to scroll for complete information (Information Processing Style)
+- Scrolling is a basic, familiar action that ABI would be comfortable with, requiring no special technical knowledge (Computer Self-Efficacy)
+- The page follows a standard layout with sections like "Hotel Registration" and "Why Stay at the Conference Hotel?" visible at the top, suggesting more detailed information below (Learning Style)
+- The presence of a long-form content structure is clear, which matches ABI's preference for comprehensive information gathering (Information Processing Style)
+- The visible content at the top provides enough context to indicate that scrolling will reveal more relevant accommodation details, making it a safe and predictable action (Computer Self-Efficacy)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes, after scrolling through this accommodation page, Abi will know she's making progress toward her goal of finding out where people are staying, for several reasons:
-1. The page clearly shows that the Fairmont The Queen Elizabeth Hotel is the main conference hotel, with clear visual and textual information about it.
-2. The page provides specific benefits of staying at the conference hotel:
-- It's in the center of conference activity
-- It offers networking opportunities with other attendees
-- It includes free high-speed Wi-Fi and health club access
-- It helps avoid potential penalties for unused room blocks
-3. The page gives practical information Abi needs:
-- The exact address (900 Rene Levesque Blvd. W)
-- Location benefits (directly above Central Train Station)
-- Transportation access details
-- Contact information for reservations
-4. The page also clearly indicates that the special conference room rate is no longer available, which is important information for her decision-making.
-Since Abi is comprehensive in her information gathering and likes to be thorough (characteristics of the Abi persona), this page gives her the complete picture she needs about accommodation options and confirms she's on the right track in her conference planning process. She can be confident she has found the official conference hotel information and can make an informed decision about where to stay.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: After scrolling, ABI will know she's making progress because:
+- The page provides comprehensive information about the conference hotel, including:
+  * Clear confirmation that this is the main conference hotel
+  * Detailed explanation of hotel amenities and benefits
+  * Specific location and contact information
+  * Clear instructions for booking (Information Processing Style)
+- The information is organized in logical sections ("Hotel Registration", "Why Stay at the Conference Hotel?", "Address") making it easy to process and understand (Computer Self-Efficacy)
+- The content directly addresses important considerations for her decision:
+  * Location relative to conference activities
+  * Transportation access
+  * Available amenities (Wi-Fi, health club)
+  * Booking process details (Motivations)
+- The information is presented in clear, non-technical language that ABI can understand confidently (Computer Self-Efficacy)
+- The page provides all the necessary details ABI needs to make an informed decision about accommodation, fulfilling her subgoal of knowing where people are staying (Information Processing Style)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yes, Abi would likely have thought about determining the length of stay as a step toward making her travel arrangements, and this page provides relevant information to help with that decision.
-Given Abi's comprehensive information processing style and tendency to gather all relevant information before making decisions, she would want to:
-1. Check the conference dates (May 25-31, 2019) shown at the top of the page
-2. Consider the hotel's location benefits mentioned on the page:
-- It's the center of conference activity
-- Direct access to Central Train Station
-- Close to subway/local transit
-- Networking opportunities with other attendees
-3. Review the list of conference tracks and events at the bottom of the page to determine which sessions she wants to attend
-4. Factor in that she's a second author, so she might want to:
-- Attend her paper's presentation
-- Participate in other relevant technical sessions
-- Take advantage of networking opportunities
-Abi's risk-averse nature means she would carefully plan her stay to ensure she doesn't miss important events. She would likely cross-reference this accommodation information with the full conference program to make an informed decision about her length of stay.
-So yes, determining the duration of stay would definitely be a step Abi would consider essential in her travel planning process, and this page provides key information to help make that decision.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Attitude Toward Risk
+3. Motivations
+Why: This subgoal aligns with ABI's characteristics because:
+- As someone who prefers comprehensive information gathering, knowing the duration of stay is a crucial part of travel planning (Information Processing Style)
+- ABI is risk-averse and would want to ensure she plans the correct length of stay to avoid missing important events or incurring unnecessary costs (Attitude Toward Risk)
+- Since she's attending as a paper author, she needs to know how long to stay to fulfill her conference obligations and make the most of her trip (Motivations)
+- This information is essential for both hotel booking and travel arrangements, making it a logical and necessary step in her planning process (Information Processing Style)
+- Planning the correct duration helps avoid the risk of missing important sessions or having to make last-minute changes, which would make ABI uncomfortable (Attitude Toward Risk)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at this page and the requested action to "Click on program", let me analyze if this would be clear for Abi:
-Yes, Abi should be able to take this action because:
-1. The "Program" link is clearly visible in the main navigation menu at the top of the page
-2. It's a standard menu item placement that most conference websites use
-3. Given that Abi wants to determine how many days to stay at the conference, checking the program is a logical next step
-4. The link is prominently displayed and easily accessible
-However, there are a few potential hesitation points for Abi, given her cognitive style:
-1. She's currently on the Accommodation page, and she might wonder if she should first complete reading about accommodation before moving to the program
-2. As someone who likes to gather comprehensive information before making decisions, she might want to finish reading about the hotel details first
-3. She might question if there's a better way to determine the conference duration
-Overall, while the page design makes the "Program" link findable and clickable, Abi's comprehensive information processing style might cause her to hesitate before immediately clicking on it. She might prefer to finish reading the current page first to ensure she hasn't missed any important accommodation-related information that might affect her length of stay.
-The page design is adequate for this action, but Abi's thoroughness might lead her to take a more methodical approach rather than immediately clicking on the Program link.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This action aligns with ABI's characteristics because:
+- The "Program" link is clearly visible in the main navigation menu, and it logically suggests information about conference schedule and duration (Information Processing Style)
+- ABI would recognize that the program would contain the conference schedule, which is necessary to determine the length of stay (Learning Style)
+- The term "Program" is a standard, non-technical term commonly used in conference websites, making ABI feel confident about what she'll find there (Computer Self-Efficacy)
+- The link is part of the main navigation menu, making it a safe, process-oriented choice rather than requiring any risky exploration (Learning Style)
+- Since ABI needs comprehensive information about conference dates and events to plan her stay, clicking on "Program" is a logical step in her information-gathering process (Information Processing Style)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Looking at the action and the resulting page, Abi has clicked on "Program" which was a good step, but it may not give her complete confidence that she's making progress toward determining her length of stay. Here's why:
-1. While the Program menu dropdown shows several useful options like "Week Overview," "Complete Program," and other event types, Abi will likely want to confirm:
-- The exact conference dates (which are shown at the top: May 25-31, 2019)
-- Which days include essential events for paper presentations
-- Which supplementary events she might want to attend
-2. The page shows accommodation information and a gym photo from the Fairmont hotel, rather than the program schedule she needs to plan her stay.
-3. Abi, being someone who likes to be thorough and certain before proceeding, might feel uncertain because:
-- She hasn't yet seen the full schedule of events
-- She can't yet determine which days are crucial for her paper presentation
-- She needs to click further (possibly on "Week Overview" or "Complete Program") to get the specific information about conference activities
-To fully achieve her subgoal of determining how many days to stay, Abi should probably:
-1. Click on "Week Overview" or "Complete Program" from the dropdown
-2. Look for when paper presentations occur
-3. Factor in arrival and departure days
-So while clicking "Program" was a step in the right direction, Abi likely won't feel completely confident yet that she has all the information needed to determine her length of stay.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: After clicking "Program", ABI will know she's on the right track because:
+- The dropdown menu shows several relevant options that would help determine conference duration:
+  * "Complete Program"
+  * "Week Overview"
+  * "Filter by Day"
+  These options clearly indicate she can find schedule information (Information Processing Style)
+- The menu items are organized logically and use clear, non-technical language that ABI would understand (Computer Self-Efficacy)
+- The options follow a process-oriented structure, from complete overview to day-by-day details, which matches ABI's learning style preference (Learning Style)
+- The presence of both "Complete Program" and "Week Overview" options suggests she can get comprehensive information about the conference schedule, which is necessary for planning her stay (Information Processing Style)
+- The menu structure provides a clear path to finding the information she needs without requiring any risky exploration or guesswork (Computer Self-Efficacy)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Yes, Abi will likely know what to do at this step and the page is adequate for her to take this action for several reasons:
-1. Risk Averse &amp; Comprehensive Information Processing:
-- The "Week Overview" option is clearly visible in the Program dropdown menu
-- As someone who likes to gather complete information before proceeding, Abi would naturally want to check the week overview to understand the full conference schedule
-- This matches her learning style of wanting to understand everything thoroughly before making decisions
-2. Clear Navigation:
-- The "Week Overview" link is located in a logical place under the Program menu
-- The menu structure is simple and straightforward
-3. Learning Style:
-- Abi prefers to process information comprehensively and understand the full context
-- The Week Overview would give her the complete picture of the conference schedule she needs to plan her stay
-- This aligns with her need to minimize mistakes in planning
-4. Technology Self-Efficacy:
-- The interface is simple enough that even with Abi's lower technology confidence, clicking a menu item is a basic task she can handle
-- The menu structure is conventional and familiar
-5. Motivation:
-- Since Abi needs to plan her accommodation, checking the week overview directly relates to her goal of determining how many days to stay
-- This clear connection between the action and her goal would motivate her to take this step
-The page layout and clear labeling make it easy for Abi to find and click on "Week Overview" to get the information she needs for planning her stay duration.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This action aligns with ABI's characteristics because:
+- "Week Overview" suggests a comprehensive summary of the conference schedule, which matches ABI's need for complete information (Information Processing Style)
+- Among the program options, "Week Overview" appears to be the most straightforward way to understand the conference duration without getting overwhelmed by details (Computer Self-Efficacy)
+- The term "Week Overview" is clear and self-explanatory, indicating it will provide a high-level view of the conference schedule that ABI can easily process (Learning Style)
+- It's a safer choice compared to other options like "Complete Program" which might contain too much detail, or "Filter by Day" which might require more navigation (Computer Self-Efficacy)
+- The option promises a process-oriented view of the conference schedule, which aligns with ABI's preference for structured information (Learning Style)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Yes, clicking on "Week Overview" is definitely the right action, and Abi will know she's making progress toward her goal of determining how many days to stay at the conference. Here's why:
-1. The Week Overview page shows a clear, comprehensive schedule grid from Saturday May 25 to Friday May 31, giving Abi exactly what she needs to see how long the conference runs.
-2. Being process-oriented and detail-focused as per GenderMag characteristics, Abi will appreciate that this view:
-- Shows all conference events laid out day by day
-- Clearly marks which days are for the main conference (Wed-Fri) versus co-located events (Sat-Tue)
-- Displays different tracks and sessions in different colors
-- Includes all related workshops and symposia
-3. This information allows Abi to:
-- Determine the full duration of the conference (7 days total)
-- See which days are most relevant to her interests
-- Make an informed decision about arrival and departure dates
-- Verify she hasn't missed any important events in her planning
-The comprehensive visual schedule provides exactly the kind of detailed information Abi would want to methodically plan her conference attendance duration. The clear structure and complete overview will give her confidence that she's working with all the necessary information to make her travel decisions.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: The Week Overview page provides exactly what ABI needs because:
+- It shows a clear, comprehensive calendar-style view of the entire conference from May 25-31, allowing ABI to see the full duration at a glance (Information Processing Style)
+- The information is presented in a structured, visual format that's easy to understand:
+  * Days are clearly labeled
+  * Events are color-coded
+  * The schedule is organized in a familiar calendar grid (Learning Style)
+- The page provides key information ABI needs to plan her stay:
+  * Start and end dates of the conference
+  * Main conference days
+  * Co-located events and workshops
+  * Daily schedule breakdown (Information Processing Style)
+- The format is familiar (like a calendar/timetable), making ABI feel confident in understanding the information without requiring technical knowledge (Computer Self-Efficacy)
+- The overview gives her all the necessary information to determine how many days she needs to stay, directly fulfilling her goal (Learning Style)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Looking at this scenario and the conference schedule page, let me analyze if Abi can effectively determine how to click on "tracks":
-Why Abi might hesitate or face challenges:
-1. There are multiple navigation options at the top of the page (Attending, Sponsorship, Program, Tracks, Organization, etc.)
-2. The week overview schedule shows many different tracks and sessions running in parallel
-3. Given Abi's comprehensive information processing style and tendency to gather all information before proceeding, she might feel overwhelmed by the complex schedule layout
-However, there are some helpful aspects:
-1. "Tracks" is clearly visible in the top navigation menu
-2. It's a standard website navigation element
-3. The tracks are color-coded in the schedule, suggesting their importance in the conference structure
-For Abi's specific goal of determining conference duration for travel planning:
-- The week overview clearly shows events from Sat May 25 to Fri May 31
-- Clicking on "Tracks" would give her more detailed information about specific sessions
-Assessment:
-While Abi can likely find and click the "Tracks" button, she might hesitate because:
-1. She might want to thoroughly review the week overview first to understand the full context
-2. She might question if clicking "Tracks" is the most efficient way to plan her stay
-3. She might prefer to gather more information about the overall conference structure before making decisions
-The page provides adequate information, but Abi's processing style might lead her to spend more time analyzing all options before proceeding with clicking "Tracks."</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Attitude Toward Risk
+3. Motivations
+4. Computer Self-Efficacy
+Why: This action doesn't align with ABI's characteristics because:
+- ABI has already found comprehensive information about the conference schedule in the Week Overview, which satisfies her need to know how many days to stay (Information Processing Style)
+- Clicking on "Tracks" would be an unnecessary risk when she already has the information she needs - it might lead her away from the useful overview she's currently viewing (Attitude Toward Risk)
+- The Week Overview already provides the complete timeline she needs to plan her stay, so there's no clear motivation to look at track information for determining conference duration (Motivations)
+- Given ABI's tendency to avoid unnecessary exploration and her preference for staying with information she understands, she wouldn't be motivated to click on "Tracks" when she already has what she needs (Computer Self-Efficacy)
+- The current page already fulfills her subgoal of determining how many days to stay at the conference, so exploring additional sections would be unnecessary and potentially confusing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Based on the scenario and action described, clicking on "Tracks" would be a good step, but it may not directly give Abi all the information she needs about conference duration for travel planning.
-When Abi clicks on "Tracks", she will see a detailed program breakdown, which does show the conference runs from May 25-31, 2019. However:
-Positive feedback aspects:
-- The week overview visualization clearly shows the conference schedule across multiple days
-- She can see which tracks and sessions occur on which days
-- This helps understand the full scope of the conference
-Why it's not completely sufficient:
-1. She may need to look at other sections (like "Program" or specific tracks) to determine which days are essential for her paper presentation
-2. Just seeing the tracks may not give her enough context about pre-conference or post-conference events she might want to attend
-3. The travel planning goal requires more than just conference dates - she needs registration deadlines and other logistics information
-While clicking "Tracks" provides useful schedule information, Abi might want to:
-- Check the "Program" section for more detailed scheduling
-- Look at "Technical Track" specifically since she's a paper author
-- Review "Registration" or "Attending" sections for travel-related details
-So while she's making progress, this single action won't give her all the information needed for complete travel planning.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. Motivations
+Why: Clicking on Tracks doesn't help ABI progress toward her goal because:
+- The Tracks dropdown menu shows different conference tracks and sessions but doesn't provide any additional information about conference duration that wasn't already available in the Week Overview (Information Processing Style)
+- The new information presented (various tracks and sessions) might actually confuse ABI since:
+  * It adds complexity without helping determine how many days to stay
+  * It introduces technical terms and abbreviations that might be unfamiliar
+  * It moves away from the clear timeline view she already had (Computer Self-Efficacy)
+- This action has taken her away from the useful Week Overview that was already meeting her needs, creating unnecessary risk and uncertainty (Attitude Toward Risk)
+- The information shown doesn't contribute to her immediate goal of determining conference duration, making this a detour from her intended task (Motivations)
+- The track information overlays and partially obscures the Week Overview she was using, potentially making her feel less confident about the information she had already found</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA1.xlsx
+++ b/outputs/PATTAYA1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,10 +430,10 @@
 2. Motivations
 3. Attitude Towards Risk
 Why: This subgoal aligns with ABI's characteristics because:
-- As a risk-averse person who prefers comprehensive information gathering, knowing where to stay would be an important step in her travel planning process (Information Processing Style &amp; Attitude Towards Risk)
-- Since she's attending a conference in a different city, finding accommodation information is a necessary and practical task that directly contributes to her goal of attending the conference (Motivations)
-- This is a logical step in the comprehensive planning process that ABI would want to complete before making any commitments, as she prefers to gather all necessary information before acting (Information Processing Style)
-- As someone who prefers predictability and minimizing risks, knowing the conference venue and where other attendees are staying would help her make a safe and practical choice (Attitude Towards Risk)</t>
+- As a comprehensive information processor, she would want to know where other attendees are staying to make an informed decision about her accommodation (Information Processing Style)
+- Since she's already decided to attend, knowing the accommodation details is a practical necessity that helps accomplish her travel arrangement task (Motivations)
+- Given her risk-averse nature, she would want to stay where other conference attendees are staying to minimize uncertainties about location, transportation, and safety (Attitude Towards Risk)
+The subgoal is a logical and necessary step in planning conference travel, especially for someone like ABI who prefers to gather comprehensive information before making decisions. This information would help her make a safe and practical choice aligned with the conference venue and other attendees.</t>
         </is>
       </c>
     </row>
@@ -446,45 +446,46 @@
 2. Computer Self-Efficacy
 3. Learning Style
 Why: This action aligns with ABI's characteristics because:
-- The "Attending" link is clearly visible in the navigation menu and appears to be a logical place to find accommodation information (Information Processing Style)
-- The link text "Attending" is straightforward and self-explanatory, not using any technical jargon that might confuse ABI (Computer Self-Efficacy)
-- The menu structure is simple and follows a standard website layout pattern that ABI would be familiar with (Learning Style)
-- Looking at the page layout, "Attending" section appears to contain practical information for conference attendees, which matches ABI's goal of finding accommodation details (Information Processing Style)
-- The link is part of the main navigation, making it a safe, process-oriented choice rather than requiring any risky exploration or tinkering (Learning Style)</t>
+- The "Attending" link is clearly visible in the navigation menu and also appears as a section heading in the right column, making it easy to find through comprehensive information processing
+- The term "Attending" is straightforward and non-technical, which helps with ABI's lower computer self-efficacy
+- The layout is organized in a clear, process-oriented way with distinct sections, which matches ABI's learning style
+- The context makes it logical that information about accommodation would be under "Attending" since it's related to attending the conference
+The page provides enough information and clear navigation for ABI to confidently take this action without feeling like she's taking a risk or needing to tinker around to find what she needs.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Motivations
-Why: After clicking "Attending", ABI will know she's on the right track because:
-- The dropdown menu clearly shows relevant options including "Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation" at the top of the list, which directly relates to her goal of finding where people are staying (Information Processing Style)
-- The menu items are organized in a logical way with accommodation-related information prominently displayed, making it easy for ABI to confirm she's made the right choice (Computer Self-Efficacy)
-- The options presented are practical and directly related to her task of making travel arrangements, showing clear progress toward her goal (Motivations)
-- The information is presented in a straightforward manner without technical jargon, making ABI feel confident she's in the right place (Computer Self-Efficacy)
-- The menu provides comprehensive information about venue and accommodation options, which aligns with her need to gather complete information before making decisions (Information Processing Style)</t>
+3. Attitude Toward Risk
+Why: Although ABI clicked on "Attending" and sees a dropdown menu with relevant options, there are several issues:
+- The dropdown menu shows multiple options ("Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation" as separate items) which might create confusion about which one to click for complete accommodation information (Information Processing Style)
+- With her comprehensive information processing style, ABI would want to be sure she's getting all the accommodation details, but it's unclear if clicking either option will provide complete information
+- Given her low computer self-efficacy, having two potentially relevant options ("Venue" and "Accommodation") might make her uncertain about which one contains the information she needs
+- Her risk-averse nature would make her hesitant about choosing between these options without knowing exactly what information each contains
+The interface doesn't provide clear confirmation that she's on the right path to getting complete accommodation information, and the split between "Venue" and "Accommodation" creates uncertainty about where to find comprehensive details about where people are staying.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Learning Style
-Why: This action aligns with ABI's characteristics because:
-- The "Accommodation" link is clearly visible in the dropdown menu right after the venue information, making it a logical next step (Information Processing Style)
-- The term "Accommodation" is straightforward and familiar, not using any technical jargon that might confuse ABI (Computer Self-Efficacy)
-- The menu structure presents options in a clear, hierarchical manner - first showing the venue, then accommodation - which follows a logical process that ABI would appreciate (Learning Style)
-- The link appears in a predictable location within the dropdown menu, making it feel safe and reliable to click (Computer Self-Efficacy)
-- The positioning of the link right after the venue information suggests it contains relevant information about where to stay, which directly relates to her goal (Information Processing Style)</t>
+3. Attitude Toward Risk
+4. Learning Style
+Why: The page presents several challenges for ABI:
+- There are two potentially relevant options ("Venue: Fairmont The Queen Elizabeth Hotel" and "Accommodation") in the dropdown menu, creating ambiguity about which one contains the complete accommodation information (Information Processing Style)
+- With her comprehensive information processing style and risk-averse nature, ABI would be uncertain whether to click "Accommodation" or "Venue" first to get complete information
+- Given her low computer self-efficacy, having two separate but related links would make her hesitant about which one to choose, fearing she might miss important information
+- The page doesn't provide any preview or explanation of what information is contained under each option, which doesn't align with her process-oriented learning style
+The interface creates uncertainty by splitting potentially related information into two separate options without clear indication of what information is contained in each, making it difficult for ABI to confidently choose which option to click.</t>
         </is>
       </c>
     </row>
@@ -494,18 +495,18 @@
           <t>Answer: YES
 Facets:
 1. Information Processing Style
-2. Computer Self-Efficacy
-3. Motivations
-Why: The page provides comprehensive information that aligns with ABI's needs because:
-- The page clearly shows and confirms this is the conference hotel (Fairmont The Queen Elizabeth Hotel) with detailed information about its location and amenities (Information Processing Style)
-- The information is presented in a structured way with clear sections like "Hotel Registration", "Why Stay at the Conference Hotel?" and "Address" which helps ABI process the information systematically (Information Processing Style)
-- The page provides practical details that ABI needs to make a decision, including:
-  * Location details and accessibility information
-  * Benefits of staying at the conference hotel (like Wi-Fi, health club access)
-  * Clear instructions about how to make reservations
-  * Contact information for booking (Computer Self-Efficacy)
-- The content directly addresses her goal of finding accommodation and provides complete information needed to make a decision (Motivations)
-- The information is presented in plain language without technical jargon, making ABI feel confident about understanding the content (Computer Self-Efficacy)</t>
+2. Motivations
+3. Computer Self-Efficacy
+Why: The page provides comprehensive information that aligns with ABI's needs:
+- The page clearly shows she's in the right place with "Accommodation" as the heading and provides detailed information about the conference hotel (Information Processing Style)
+- The content is well-organized with clear sections ("Hotel Registration", "Why Stay at the Conference Hotel?", "Address") that helps ABI process the information systematically
+- The page provides practical information that helps accomplish her task (Motivations):
+  * The specific hotel name and location
+  * Benefits of staying at the conference hotel
+  * Transportation details
+  * Booking information
+- The information is presented in plain language without technical jargon, which helps with her lower computer self-efficacy
+The page provides all the necessary information about where conference attendees are staying and how to make arrangements, confirming she's made progress toward her goal of finding accommodation information.</t>
         </is>
       </c>
     </row>
@@ -515,14 +516,14 @@
           <t>Answer: YES
 Facets:
 1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
-Why: The page layout encourages scrolling and aligns with ABI's characteristics because:
-- The page clearly shows there is more content below the initial view (visible content gets cut off), indicating a need to scroll for complete information (Information Processing Style)
-- Scrolling is a basic, familiar action that ABI would be comfortable with, requiring no special technical knowledge (Computer Self-Efficacy)
-- The page follows a standard layout with sections like "Hotel Registration" and "Why Stay at the Conference Hotel?" visible at the top, suggesting more detailed information below (Learning Style)
-- The presence of a long-form content structure is clear, which matches ABI's preference for comprehensive information gathering (Information Processing Style)
-- The visible content at the top provides enough context to indicate that scrolling will reveal more relevant accommodation details, making it a safe and predictable action (Computer Self-Efficacy)</t>
+2. Learning Style
+3. Computer Self-Efficacy
+Why: The page layout and content encourage scrolling in a way that aligns with ABI's characteristics:
+- The page clearly shows there is more content below the initial view with visible section headings like "Hotel Registration" and "Why Stay at the Conference Hotel?" which indicates more information is available (Information Processing Style)
+- The content is organized in a logical, process-oriented way with clear sections, which matches ABI's learning style preference for systematic information gathering
+- Scrolling is a basic, familiar action that doesn't require technical expertise, which aligns with her lower computer self-efficacy
+- The visible structure of the page (with headings and sections) suggests that scrolling will reveal more relevant information about accommodation, making it a natural action for someone who processes information comprehensively
+The page provides clear visual cues that more content exists below, and scrolling is a safe, familiar action that ABI would be comfortable with to access this additional information.</t>
         </is>
       </c>
     </row>
@@ -532,22 +533,25 @@
           <t>Answer: YES
 Facets:
 1. Information Processing Style
-2. Computer Self-Efficacy
-3. Motivations
+2. Motivations
+3. Learning Style
 Why: After scrolling, ABI will know she's making progress because:
-- The page provides comprehensive information about the conference hotel, including:
-  * Clear confirmation that this is the main conference hotel
-  * Detailed explanation of hotel amenities and benefits
-  * Specific location and contact information
-  * Clear instructions for booking (Information Processing Style)
-- The information is organized in logical sections ("Hotel Registration", "Why Stay at the Conference Hotel?", "Address") making it easy to process and understand (Computer Self-Efficacy)
-- The content directly addresses important considerations for her decision:
-  * Location relative to conference activities
-  * Transportation access
-  * Available amenities (Wi-Fi, health club)
-  * Booking process details (Motivations)
-- The information is presented in clear, non-technical language that ABI can understand confidently (Computer Self-Efficacy)
-- The page provides all the necessary details ABI needs to make an informed decision about accommodation, fulfilling her subgoal of knowing where people are staying (Information Processing Style)</t>
+- The page provides comprehensive information that satisfies her information processing style:
+  * Clear details about the conference hotel
+  * Explanation of why to stay there
+  * Specific address information
+  * Transportation details
+  * Booking instructions
+- The content directly addresses her motivations:
+  * Confirms where other attendees will be staying
+  * Explains benefits like being at the "centre of conference activity"
+  * Provides practical information about amenities (WiFi, health club access)
+  * Clear instructions about how to book
+- The information is presented in a structured, process-oriented way that matches her learning style:
+  * Organized into clear sections with headings
+  * Information flows logically from description to registration to benefits to location
+  * Provides step-by-step information about how to proceed with booking
+The page gives ABI all the information she needs about conference accommodation in a clear, comprehensive way that helps her achieve her goal of knowing where people are staying and how to arrange her own accommodation.</t>
         </is>
       </c>
     </row>
@@ -560,16 +564,36 @@
 2. Attitude Toward Risk
 3. Motivations
 Why: This subgoal aligns with ABI's characteristics because:
-- As someone who prefers comprehensive information gathering, knowing the duration of stay is a crucial part of travel planning (Information Processing Style)
-- ABI is risk-averse and would want to ensure she plans the correct length of stay to avoid missing important events or incurring unnecessary costs (Attitude Toward Risk)
-- Since she's attending as a paper author, she needs to know how long to stay to fulfill her conference obligations and make the most of her trip (Motivations)
-- This information is essential for both hotel booking and travel arrangements, making it a logical and necessary step in her planning process (Information Processing Style)
-- Planning the correct duration helps avoid the risk of missing important sessions or having to make last-minute changes, which would make ABI uncomfortable (Attitude Toward Risk)</t>
+- As someone who processes information comprehensively, ABI would want to know the conference duration to plan her stay appropriately (Information Processing Style)
+- Given her risk-averse nature, she would want to ensure she books accommodation for the correct number of days to avoid any scheduling problems (Attitude Toward Risk)
+- Since she's already decided to attend, knowing the duration is a practical necessity for making proper travel arrangements and is directly related to her task of arranging accommodation (Motivations)
+The subgoal is a logical and necessary step in planning conference travel, as it directly impacts both accommodation booking and travel arrangements. For someone like ABI who likes to gather complete information before making decisions, knowing the conference duration would be an essential piece of information to plan her stay effectively.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Motivations
+Why: This action aligns with ABI's characteristics because:
+- The "Program" link is clearly visible in the top navigation menu, and it's a logical place to find conference schedule/duration information (Information Processing Style)
+- The term "Program" is a standard, non-technical term that clearly suggests it contains schedule information, which aligns with her process-oriented learning style
+- Finding the conference duration through the program is directly related to her motivation of planning her stay effectively
+- The current accommodation page doesn't show conference duration information, so it's logical to look for this information in the program section
+The page makes it clear that:
+1. The accommodation page doesn't contain schedule information
+2. "Program" is a visible and logical next step to find conference duration details
+3. The action doesn't require any technical knowledge or risky exploration
+This makes it a comfortable and logical action for ABI to take to find the information she needs about conference duration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets:
@@ -577,32 +601,15 @@
 2. Learning Style
 3. Computer Self-Efficacy
 Why: This action aligns with ABI's characteristics because:
-- The "Program" link is clearly visible in the main navigation menu, and it logically suggests information about conference schedule and duration (Information Processing Style)
-- ABI would recognize that the program would contain the conference schedule, which is necessary to determine the length of stay (Learning Style)
-- The term "Program" is a standard, non-technical term commonly used in conference websites, making ABI feel confident about what she'll find there (Computer Self-Efficacy)
-- The link is part of the main navigation menu, making it a safe, process-oriented choice rather than requiring any risky exploration (Learning Style)
-- Since ABI needs comprehensive information about conference dates and events to plan her stay, clicking on "Program" is a logical step in her information-gathering process (Information Processing Style)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
-Why: After clicking "Program", ABI will know she's on the right track because:
-- The dropdown menu shows several relevant options that would help determine conference duration:
-  * "Complete Program"
-  * "Week Overview"
-  * "Filter by Day"
-  These options clearly indicate she can find schedule information (Information Processing Style)
-- The menu items are organized logically and use clear, non-technical language that ABI would understand (Computer Self-Efficacy)
-- The options follow a process-oriented structure, from complete overview to day-by-day details, which matches ABI's learning style preference (Learning Style)
-- The presence of both "Complete Program" and "Week Overview" options suggests she can get comprehensive information about the conference schedule, which is necessary for planning her stay (Information Processing Style)
-- The menu structure provides a clear path to finding the information she needs without requiring any risky exploration or guesswork (Computer Self-Efficacy)</t>
+- "Week Overview" appears in a clear dropdown menu under Program, and the term directly suggests it will show the conference schedule/duration (Information Processing Style)
+- The term "Week Overview" is straightforward and self-explanatory, suggesting a comprehensive view of the conference schedule, which matches her process-oriented learning style
+- It's a logical and clear option among the program choices, requiring no technical knowledge or risky exploration (Computer Self-Efficacy)
+The page provides good support for this action because:
+1. The dropdown menu clearly shows "Week Overview" as an option
+2. The term is intuitive and suggests exactly what ABI is looking for (conference duration/schedule)
+3. It's presented in a standard menu format that's familiar and non-threatening
+4. Among all the program options shown, "Week Overview" is the most obvious choice for finding conference duration information
+This makes it a comfortable and logical next step for ABI to find the information she needs about how many days she needs to stay.</t>
         </is>
       </c>
     </row>
@@ -613,37 +620,39 @@
 Facets:
 1. Information Processing Style
 2. Learning Style
-3. Computer Self-Efficacy
-Why: This action aligns with ABI's characteristics because:
-- "Week Overview" suggests a comprehensive summary of the conference schedule, which matches ABI's need for complete information (Information Processing Style)
-- Among the program options, "Week Overview" appears to be the most straightforward way to understand the conference duration without getting overwhelmed by details (Computer Self-Efficacy)
-- The term "Week Overview" is clear and self-explanatory, indicating it will provide a high-level view of the conference schedule that ABI can easily process (Learning Style)
-- It's a safer choice compared to other options like "Complete Program" which might contain too much detail, or "Filter by Day" which might require more navigation (Computer Self-Efficacy)
-- The option promises a process-oriented view of the conference schedule, which aligns with ABI's preference for structured information (Learning Style)</t>
+3. Motivations
+Why: The page provides clear information that aligns with ABI's needs:
+- The week overview shows a comprehensive schedule grid from Sat May 25 to Fri May 31, giving ABI the exact conference duration she needs (Information Processing Style)
+- The information is presented in a clear, structured format with:
+  * Daily columns
+  * Color-coded sessions
+  * Clear date labels
+  Which matches her process-oriented learning style
+- The schedule directly helps her accomplish her task of determining how many days to stay by showing:
+  * Start and end dates
+  * Main conference events
+  * Co-located events
+  This helps her make an informed decision about her stay duration (Motivations)
+The page successfully provides all the information ABI needs to determine the conference duration and plan her accommodation accordingly. The visual organization makes it easy to understand the full span of the conference and its various components, confirming she's found the right information to plan her stay.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
-Why: The Week Overview page provides exactly what ABI needs because:
-- It shows a clear, comprehensive calendar-style view of the entire conference from May 25-31, allowing ABI to see the full duration at a glance (Information Processing Style)
-- The information is presented in a structured, visual format that's easy to understand:
-  * Days are clearly labeled
-  * Events are color-coded
-  * The schedule is organized in a familiar calendar grid (Learning Style)
-- The page provides key information ABI needs to plan her stay:
-  * Start and end dates of the conference
-  * Main conference days
-  * Co-located events and workshops
-  * Daily schedule breakdown (Information Processing Style)
-- The format is familiar (like a calendar/timetable), making ABI feel confident in understanding the information without requiring technical knowledge (Computer Self-Efficacy)
-- The overview gives her all the necessary information to determine how many days she needs to stay, directly fulfilling her goal (Learning Style)</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Attitude Toward Risk
+3. Motivations
+4. Learning Style
+Why: This action doesn't align with ABI's characteristics because:
+- ABI has already found the comprehensive week overview that shows the full conference schedule, including all tracks and sessions (Information Processing Style)
+- The week overview provides all the information she needs to determine conference duration, so there's no clear motivation to look at tracks separately
+- Given her risk-averse nature, she would be hesitant to navigate away from a page that's already giving her the information she needs (Attitude Toward Risk)
+- Her process-oriented learning style means she would prefer to fully understand the current information (week overview) rather than jumping to a different view
+- The current page already shows track information integrated into the schedule, making it unclear why she would need to view tracks separately
+The page is already providing the comprehensive information ABI needs to determine how many days to stay, and clicking on tracks would be an unnecessary deviation that doesn't align with her goal-oriented approach to completing tasks.</t>
         </is>
       </c>
     </row>
@@ -654,35 +663,19 @@
 Facets:
 1. Information Processing Style
 2. Attitude Toward Risk
-3. Motivations
-4. Computer Self-Efficacy
-Why: This action doesn't align with ABI's characteristics because:
-- ABI has already found comprehensive information about the conference schedule in the Week Overview, which satisfies her need to know how many days to stay (Information Processing Style)
-- Clicking on "Tracks" would be an unnecessary risk when she already has the information she needs - it might lead her away from the useful overview she's currently viewing (Attitude Toward Risk)
-- The Week Overview already provides the complete timeline she needs to plan her stay, so there's no clear motivation to look at track information for determining conference duration (Motivations)
-- Given ABI's tendency to avoid unnecessary exploration and her preference for staying with information she understands, she wouldn't be motivated to click on "Tracks" when she already has what she needs (Computer Self-Efficacy)
-- The current page already fulfills her subgoal of determining how many days to stay at the conference, so exploring additional sections would be unnecessary and potentially confusing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude Toward Risk
+3. Learning Style
 4. Motivations
-Why: Clicking on Tracks doesn't help ABI progress toward her goal because:
-- The Tracks dropdown menu shows different conference tracks and sessions but doesn't provide any additional information about conference duration that wasn't already available in the Week Overview (Information Processing Style)
-- The new information presented (various tracks and sessions) might actually confuse ABI since:
-  * It adds complexity without helping determine how many days to stay
-  * It introduces technical terms and abbreviations that might be unfamiliar
-  * It moves away from the clear timeline view she already had (Computer Self-Efficacy)
-- This action has taken her away from the useful Week Overview that was already meeting her needs, creating unnecessary risk and uncertainty (Attitude Toward Risk)
-- The information shown doesn't contribute to her immediate goal of determining conference duration, making this a detour from her intended task (Motivations)
-- The track information overlays and partially obscures the Week Overview she was using, potentially making her feel less confident about the information she had already found</t>
+Why: This action takes ABI away from her goal rather than helping her:
+- The tracks dropdown menu provides a different organization of conference content that doesn't directly help determine conference duration (Information Processing Style)
+- Moving away from the week overview (which had clear dates and schedule) to a tracks view creates uncertainty about conference duration (Attitude Toward Risk)
+- The new view disrupts her process-oriented approach by showing a different organization of information that doesn't address her current goal (Learning Style)
+- This view doesn't provide the temporal information she needs to plan her stay, making it less useful for her current task (Motivations)
+The page now:
+- Shows track categories without dates
+- Doesn't provide the clear timeline information she had in the week overview
+- Adds complexity without contributing to her goal of determining how many days to stay
+- Makes her task more difficult by hiding the calendar view she previously had
+This confirms she made the wrong choice as this new view doesn't help her determine how many days she needs to stay at the conference.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA1.xlsx
+++ b/outputs/PATTAYA1.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. This information could help her decide on accommodations and logistics, aligning with her goal of attending the conference.</t>
+Facets: 1.Motivations
+Why: Getting to know where people are staying might help Abi to get in touch with other attendees with similar interests, and it could help her plan her trip better. So, it is in line with Abi's motivation to accomplish her tasks.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and logistics, which aligns with Abi's goal of making travel arrangements. The page layout is straightforward, and the link is prominently displayed, making it easy for Abi to know what to do next.</t>
+          <t>Answer: NO
+Facets: 3. Attitude Towards Risk &amp; 6.None of the Above
+Why: ABI has a negative attitude towards risk and prefers to use familiar technologies. Clicking on "attending" without knowing where it would take her is something new, not in line with her attitude toward risk. ABI's tendency is to get all the information before clicking on anything, which is not available on the page.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation" and "Venue," which are directly related to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal and provides the necessary information to proceed.</t>
+Facets: 1. Motivations &amp; 2. Information Processing Style 
+Why: ABI's motivation is accomplishing the task. She has a comprehensive information processing style. Clicking on the "attending" button takes her to a new window where she can potentially get more information about accommodations, which will be helpful for her, so it is in line with her motivations and information processing style. So, she will click on the attending button.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed in the dropdown menu under "Attending," which directly relates to Abi's goal of finding out where people are staying. The page layout is intuitive, making it easy for Abi to know what to do next.</t>
+Facets: 1. Motivations
+Why: This action takes ABI closer to achieving her goal of finding out where people are staying at the conference.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This confirms she is making progress toward her goal of finding out where people are staying and provides all the necessary information she needs.</t>
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: "Accommodations" in the navigation bar is a clue that suggests this is information on the topic she needs. Because ABI's information processing style is to process information in a comprehensive manner and gather information before acting, she would likely click on this link</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style aligns with scrolling to ensure she gathers all necessary details.</t>
+Why: ABI processes information comprehensively. So, scrolling the page up and down to get a complete picture of the page and its information aligns with her information processing style.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal and provides all the necessary information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: Though scrolling aligns with ABI's information processing style, there is no new information gained from scrolling further. So, she isn't progressing toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,35 +488,35 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would consider this step essential to plan her itinerary and accommodations effectively.</t>
+Facets: 2. Information Processing Style
+Why: Determining how many days to stay at the conference is a step toward achieving the overall use case of making travel arrangements. ABI's information processing style is comprehensive, so she would likely consider this as a step in her process of gathering information.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the schedule of events. The page layout is clear, and the "Program" option is easily accessible, guiding her to the information she needs.</t>
+          <t>Answer: NO
+Facets: 3. Attitude Towards Risk &amp; 6. None of the Above
+Why: The text of the button "program" is not descriptive enough for her to understand that it will have useful info about the number of days of the conference. ABI's risk aversion trait leads her to avoid unfamiliar technologies/actions when she is uncertain about the outcome, so she won't click.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees a dropdown with detailed options, including specific dates and a complete program overview. This confirms she is making progress toward her goal of determining how many days to stay, as it provides the necessary schedule information.</t>
+          <t>Answer: NO
+Facets: 5. Learning Style &amp; 6. None of the Above
+Why: ABI doesn't have information about how long the conference is. The webpage doesn't provide the duration of the conference. The page only shows the event happening over four days, which doesn't give her a clear idea of how many days she should stay at the conference. Also, Clicking on the conference program without understanding the page fully is not in line with ABI's process-oriented learning style.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of determining how many days to stay. The page layout is intuitive, making it easy for her to know what to do next.</t>
+          <t>Answer: NO
+Facets: 6. None of the Above
+Why: Clicking on "Week Overview" without understanding what it is about is not in line with ABI's comfort with familiar technologies and avoiding unfamiliar ones.</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. Abi can see the timeline and activities, confirming she is making progress toward her goal of deciding how many days to stay. The information is comprehensive and well-organized.</t>
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: The week overview page shows the schedule for all the days of the conference, which gives ABI the information she needs to determine how many days to stay at the conference. This aligns with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule, and it's unclear why Abi would need to click on "Tracks" for additional information about how many days to stay. Without clear guidance or indication that "Tracks" will offer new insights, Abi might not know this action is necessary.</t>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Going up to the page and clicking on tracks is in line with Abi's motivations. She wants to gather information to complete her task, and it is possible there will be more information of value under the "tracks" links</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Tracks" dropdown provides a list of tracks and co-hosted conferences, but it doesn't clearly indicate how this helps Abi decide how many days to stay. Without explicit guidance or a direct link to her goal, Abi may not feel confident that she is making progress.</t>
+Facets: 2. Information Processing Style &amp; 6. None of the Above
+Why: Clicking on tracks from the schedule view does not help ABI determine how many days to stay at the conference. This is a mismatch with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA1.xlsx
+++ b/outputs/PATTAYA1.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1.Motivations
-Why: Getting to know where people are staying might help Abi to get in touch with other attendees with similar interests, and it could help her plan her trip better. So, it is in line with Abi's motivation to accomplish her tasks.</t>
+Facets: 1. Motivations
+Why: Abi is attending the conference and would likely want to know where other attendees are staying to make her travel arrangements more convenient. This aligns with her motivation to attend the conference and be part of the community.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 3. Attitude Towards Risk &amp; 6.None of the Above
-Why: ABI has a negative attitude towards risk and prefers to use familiar technologies. Clicking on "attending" without knowing where it would take her is something new, not in line with her attitude toward risk. ABI's tendency is to get all the information before clicking on anything, which is not available on the page.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout supports her comprehensive information processing style, making it likely she will click on it.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations &amp; 2. Information Processing Style 
-Why: ABI's motivation is accomplishing the task. She has a comprehensive information processing style. Clicking on the "attending" button takes her to a new window where she can potentially get more information about accommodations, which will be helpful for her, so it is in line with her motivations and information processing style. So, she will click on the attending button.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation indicates she is making progress toward her goal, and the options provide the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: This action takes ABI closer to achieving her goal of finding out where people are staying at the conference.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Accommodation" option is clearly listed under the "Attending" dropdown, directly aligning with Abi's goal of finding out where people are staying. The page layout and labeling make it straightforward for her to know what to do next, supporting her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: "Accommodations" in the navigation bar is a clue that suggests this is information on the topic she needs. Because ABI's information processing style is to process information in a comprehensive manner and gather information before acting, she would likely click on this link</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its benefits and registration details. This confirms she is making progress toward her goal of finding out where people are staying, and the comprehensive information aligns with her processing style.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: ABI processes information comprehensively. So, scrolling the page up and down to get a complete picture of the page and its information aligns with her information processing style.</t>
+Why: The page contains detailed information about accommodation, and scrolling is a natural action to view more content. Abi's comprehensive information processing style supports her motivation to scroll and gather all necessary details.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: Though scrolling aligns with ABI's information processing style, there is no new information gained from scrolling further. So, she isn't progressing toward her goal.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits. This confirms she is making progress toward her goal of understanding where people are staying, and the comprehensive details align with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -488,35 +488,35 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Determining how many days to stay at the conference is a step toward achieving the overall use case of making travel arrangements. ABI's information processing style is comprehensive, so she would likely consider this as a step in her process of gathering information.</t>
+Facets: 1. Motivations
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi would naturally consider this as part of her planning process to ensure she attends the necessary sessions and events.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 3. Attitude Towards Risk &amp; 6. None of the Above
-Why: The text of the button "program" is not descriptive enough for her to understand that it will have useful info about the number of days of the conference. ABI's risk aversion trait leads her to avoid unfamiliar technologies/actions when she is uncertain about the outcome, so she won't click.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the conference schedule, which is essential for Abi to determine how many days to stay. The page layout and clear labeling make it straightforward for her to know that clicking "Program" will help her achieve her goal.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 5. Learning Style &amp; 6. None of the Above
-Why: ABI doesn't have information about how long the conference is. The webpage doesn't provide the duration of the conference. The page only shows the event happening over four days, which doesn't give her a clear idea of how many days she should stay at the conference. Also, Clicking on the conference program without understanding the page fully is not in line with ABI's process-oriented learning style.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which directly relate to her goal of determining how many days to stay. This confirms she is making progress toward her goal, and the detailed options align with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 6. None of the Above
-Why: Clicking on "Week Overview" without understanding what it is about is not in line with ABI's comfort with familiar technologies and avoiding unfamiliar ones.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's goal of determining how many days to stay, and the page layout supports her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: The week overview page shows the schedule for all the days of the conference, which gives ABI the information she needs to determine how many days to stay at the conference. This aligns with ABI's comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days, helping Abi determine how many days to stay. This confirms she is making progress toward her goal, and the organized layout aligns with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Going up to the page and clicking on tracks is in line with Abi's motivations. She wants to gather information to complete her task, and it is possible there will be more information of value under the "tracks" links</t>
+          <t>Answer: NO
+Facets: 3. Attitude Toward Risk, 4. Computer Self-Efficacy
+Why: The page already provides a comprehensive overview of the conference schedule. Clicking on "Tracks" without clear indication of additional relevant information might not seem necessary to Abi. She may be hesitant to explore further without explicit guidance, due to her low confidence in unfamiliar tasks.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style &amp; 6. None of the Above
-Why: Clicking on tracks from the schedule view does not help ABI determine how many days to stay at the conference. This is a mismatch with ABI's comprehensive information processing style.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The dropdown menu provides a list of tracks, but it doesn't directly indicate how this helps determine the number of days to stay. Abi may not feel confident that this action is progressing toward her goal, as the connection between tracks and her subgoal isn't explicit.</t>
         </is>
       </c>
     </row>
